--- a/Bill_of_Material.xlsx
+++ b/Bill_of_Material.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dirk/Libelle/OpenVario/e-Vario/Instructions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dirk/Documents/GitHub/FreeVarioGauge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426C3FF2-B61D-6647-8CFC-7C8028A4179E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E646A9BD-67E7-874F-8D14-DED347B1B7C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{A71850B3-3A10-CA42-999C-A02A84AA5A96}"/>
   </bookViews>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>NHD-2.4-240320CF-CSXN#-F</t>
-  </si>
-  <si>
-    <t>https://www.luna-displays.de/TFT/TFT-2-4/Newhaven-Display-NHD-2-4-240320CF-CSXN-F-2-4-Sunlight-Readable-TFT.html</t>
   </si>
   <si>
     <t>Espressif ESP32 WLAN Dev Kit Board Development Bluetooth Wifi v1</t>
@@ -450,6 +447,9 @@
   </si>
   <si>
     <t>C84376</t>
+  </si>
+  <si>
+    <t>https://www.luna-electronic.de/de/tft-displays/newhaven-display-nhd-2-4-240320cf-csxn-f-2-4-sunlight-readable-tft.html</t>
   </si>
 </sst>
 </file>
@@ -895,7 +895,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1252,197 +1252,197 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
         <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
         <v>15</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
         <v>18</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
         <v>21</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
         <v>25</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="3">
         <v>5</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1">
       <c r="A14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1">
       <c r="A16" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1453,275 +1453,275 @@
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1">
       <c r="A17" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
         <v>8</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
         <v>35</v>
-      </c>
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
         <v>76</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
         <v>77</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
         <v>12</v>
-      </c>
-      <c r="E30" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
         <v>38</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
         <v>39</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1729,127 +1729,127 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
         <v>44</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
         <v>45</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
         <v>47</v>
-      </c>
-      <c r="B40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43">
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
         <v>51</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
         <v>52</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45" t="s">
-        <v>53</v>
       </c>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -1858,35 +1858,35 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
       <c r="D47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1963,156 +1963,156 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2160,44 +2160,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2280,44 +2280,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/Bill_of_Material.xlsx
+++ b/Bill_of_Material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dirk/Documents/GitHub/FreeVarioGauge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E646A9BD-67E7-874F-8D14-DED347B1B7C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85E348C-D1A1-E546-B135-75FBAA9A1F88}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{A71850B3-3A10-CA42-999C-A02A84AA5A96}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="128">
   <si>
     <t>Value</t>
   </si>
@@ -208,12 +208,6 @@
   </si>
   <si>
     <t>Q1, Q2</t>
-  </si>
-  <si>
-    <t>Stapelleiste 2x4</t>
-  </si>
-  <si>
-    <t>https://www.ebay.de/itm/Stapelleiste-22-polig-2x11-2-reihig-gerade-RM2-54-Stiftleiste-h-38-5-2St/273827044269?ssPageName=STRK%3AMEBIDX%3AIT&amp;_trksid=p2057872.m2749.l2649</t>
   </si>
   <si>
     <t>JST - Crimpkontakt, Buchse - XH</t>
@@ -451,12 +445,33 @@
   <si>
     <t>https://www.luna-electronic.de/de/tft-displays/newhaven-display-nhd-2-4-240320cf-csxn-f-2-4-sunlight-readable-tft.html</t>
   </si>
+  <si>
+    <t>Stapelleiste 2x4 h=26,5mm</t>
+  </si>
+  <si>
+    <t>Stapelleiste 2x2 h=26,5mm</t>
+  </si>
+  <si>
+    <t>JP1</t>
+  </si>
+  <si>
+    <t>JP3</t>
+  </si>
+  <si>
+    <t>JP2</t>
+  </si>
+  <si>
+    <t>Präz.-Buchsenleisten 2,54 mm, 1x7</t>
+  </si>
+  <si>
+    <t>MPE 115-1-007</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,6 +535,21 @@
       <color theme="1"/>
       <name val="Calibri (Textkörper)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -563,7 +593,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -577,6 +607,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -892,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE93BCC-B60F-D148-9D08-040AD6C1FD16}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1252,7 +1284,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1336,7 +1368,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -1348,7 +1380,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1356,7 +1388,7 @@
         <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
@@ -1391,7 +1423,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C13" s="3">
         <v>5</v>
@@ -1400,15 +1432,15 @@
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1">
       <c r="A14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
@@ -1417,7 +1449,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1425,7 +1457,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -1439,7 +1471,7 @@
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1">
       <c r="A16" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>29</v>
@@ -1453,10 +1485,10 @@
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1">
       <c r="A17" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -1465,16 +1497,16 @@
         <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1483,12 +1515,12 @@
         <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
         <v>59</v>
@@ -1500,12 +1532,12 @@
         <v>11</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
         <v>59</v>
@@ -1514,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -1547,7 +1579,7 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -1564,7 +1596,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -1573,7 +1605,7 @@
         <v>11</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F26" s="3"/>
     </row>
@@ -1582,7 +1614,7 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1596,7 +1628,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
@@ -1604,48 +1636,46 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="D28" s="2"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" t="s">
-        <v>77</v>
-      </c>
+      <c r="A29" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1654,26 +1684,32 @@
         <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
       </c>
       <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1681,115 +1717,109 @@
       <c r="D33" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>73</v>
+      <c r="E33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="3" t="s">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:5">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" t="s">
-        <v>47</v>
-      </c>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>67</v>
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1797,30 +1827,33 @@
       <c r="D42" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>65</v>
+      <c r="E42" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C43">
-        <v>3</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1829,80 +1862,103 @@
         <v>11</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
-      </c>
-      <c r="E45" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="E46" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
-      <c r="D48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="4"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="4"/>
-      <c r="E52" s="4"/>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="4"/>
-      <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="4"/>
@@ -1918,29 +1974,36 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="4"/>
-      <c r="D57" s="2"/>
+      <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="4"/>
+      <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="4"/>
+      <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="4"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="4"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="4"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{7F86150E-47FD-DA4A-9270-93DC9349E90E}"/>
     <hyperlink ref="D24" r:id="rId2" xr:uid="{291D8364-1659-9C40-8C0D-A90D0A1EBE5D}"/>
-    <hyperlink ref="E47" r:id="rId3" display="https://www.okw.com/de/Kombikn%C3%B6pfe/A2510030.htm?var=af9c94b0-c2e5-11e2-8e2c-0050568225d7" xr:uid="{793912D7-3AE5-B64B-B387-83FB71750F27}"/>
-    <hyperlink ref="E48" r:id="rId4" display="https://www.okw.com/de/Kombikn%C3%B6pfe-Zubeh%C3%B6r/A4110000.htm" xr:uid="{6CBEB647-38E6-FE49-9E02-7C7E2E54AE89}"/>
-    <hyperlink ref="D32" r:id="rId5" xr:uid="{42748A18-28D2-A04B-AF2C-DB82690746F6}"/>
-    <hyperlink ref="D28" r:id="rId6" xr:uid="{6B75D4E0-6AD2-3448-96AD-5BBAA999DE31}"/>
-    <hyperlink ref="D20" r:id="rId7" xr:uid="{CD6A2158-00CE-3142-9BE4-E087F48664CC}"/>
+    <hyperlink ref="E49" r:id="rId3" display="https://www.okw.com/de/Kombikn%C3%B6pfe/A2510030.htm?var=af9c94b0-c2e5-11e2-8e2c-0050568225d7" xr:uid="{793912D7-3AE5-B64B-B387-83FB71750F27}"/>
+    <hyperlink ref="E50" r:id="rId4" display="https://www.okw.com/de/Kombikn%C3%B6pfe-Zubeh%C3%B6r/A4110000.htm" xr:uid="{6CBEB647-38E6-FE49-9E02-7C7E2E54AE89}"/>
+    <hyperlink ref="D34" r:id="rId5" xr:uid="{42748A18-28D2-A04B-AF2C-DB82690746F6}"/>
+    <hyperlink ref="D20" r:id="rId6" xr:uid="{CD6A2158-00CE-3142-9BE4-E087F48664CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1963,16 +2026,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1983,24 +2046,24 @@
         <v>20</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2008,111 +2071,111 @@
         <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2160,16 +2223,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2177,27 +2240,27 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2280,16 +2343,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2297,27 +2360,27 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/Bill_of_Material.xlsx
+++ b/Bill_of_Material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dirk/Documents/GitHub/FreeVarioGauge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85E348C-D1A1-E546-B135-75FBAA9A1F88}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E28E23-B5F2-BF4E-8F26-B4725E6AB34D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{A71850B3-3A10-CA42-999C-A02A84AA5A96}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="129">
   <si>
     <t>Value</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>X1</t>
-  </si>
-  <si>
-    <t>MEBP 8-8G</t>
   </si>
   <si>
     <t>595-MAX3232-CDWR or 595-MAX3232-IDWR</t>
@@ -465,6 +462,12 @@
   </si>
   <si>
     <t>MPE 115-1-007</t>
+  </si>
+  <si>
+    <t>Ebay, Mouser</t>
+  </si>
+  <si>
+    <t>215877-1</t>
   </si>
 </sst>
 </file>
@@ -926,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE93BCC-B60F-D148-9D08-040AD6C1FD16}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1284,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1343,35 +1346,35 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
         <v>20</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1380,15 +1383,15 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
@@ -1397,33 +1400,33 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3">
         <v>5</v>
@@ -1432,15 +1435,15 @@
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1">
       <c r="A14" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
@@ -1449,15 +1452,15 @@
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -1466,15 +1469,15 @@
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1">
       <c r="A16" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1485,10 +1488,10 @@
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1">
       <c r="A17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -1497,16 +1500,16 @@
         <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1515,15 +1518,15 @@
         <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -1532,32 +1535,32 @@
         <v>11</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1576,10 +1579,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -1588,15 +1591,15 @@
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -1605,33 +1608,33 @@
         <v>11</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
         <v>34</v>
-      </c>
-      <c r="B27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1641,10 +1644,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="C29" s="9">
         <v>1</v>
@@ -1655,36 +1658,36 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
         <v>73</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
         <v>74</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1">
       <c r="A31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
         <v>126</v>
-      </c>
-      <c r="B31" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1706,38 +1709,38 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
         <v>37</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
         <v>38</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1746,32 +1749,32 @@
         <v>11</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -1780,12 +1783,12 @@
         <v>11</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1793,30 +1796,30 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
         <v>44</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
         <v>17</v>
@@ -1828,49 +1831,49 @@
         <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="3">
-        <v>1</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -1879,41 +1882,41 @@
         <v>11</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
         <v>50</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
         <v>51</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>52</v>
       </c>
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -1922,35 +1925,35 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
       <c r="D49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2026,156 +2029,156 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2223,44 +2226,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2343,44 +2346,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/Bill_of_Material.xlsx
+++ b/Bill_of_Material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dirk/Documents/GitHub/FreeVarioGauge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E28E23-B5F2-BF4E-8F26-B4725E6AB34D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7FE15B-1955-EE40-BE58-DECE5F753C6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{A71850B3-3A10-CA42-999C-A02A84AA5A96}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="135">
   <si>
     <t>Value</t>
   </si>
@@ -468,6 +468,24 @@
   </si>
   <si>
     <t>215877-1</t>
+  </si>
+  <si>
+    <t>C15, C16</t>
+  </si>
+  <si>
+    <t>L1, L2</t>
+  </si>
+  <si>
+    <t>SMD-Vielschicht-Keramikkondensator 220P, 5%</t>
+  </si>
+  <si>
+    <t>NPO-G0805 220P</t>
+  </si>
+  <si>
+    <t>EMI Suppression Filter SMD0603 BLM18 120 Ohm</t>
+  </si>
+  <si>
+    <t>BLM18AG 121</t>
   </si>
 </sst>
 </file>
@@ -927,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE93BCC-B60F-D148-9D08-040AD6C1FD16}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1472,247 +1490,247 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="4" customFormat="1">
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1">
+      <c r="A18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" s="4" customFormat="1">
-      <c r="A17" s="3" t="s">
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" s="4" customFormat="1">
+      <c r="A19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="3"/>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
         <v>7</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>8</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>123</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="9">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1">
-      <c r="A31" t="s">
-        <v>125</v>
-      </c>
-      <c r="B31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
-        <v>126</v>
-      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1721,142 +1739,142 @@
         <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
       </c>
       <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
         <v>67</v>
-      </c>
-      <c r="B35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="B37" t="s">
         <v>71</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" t="s">
-        <v>46</v>
-      </c>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="3">
-        <v>1</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>64</v>
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1864,30 +1882,33 @@
       <c r="D44" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>62</v>
+      <c r="E44" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C45">
-        <v>3</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3" t="s">
-        <v>47</v>
+        <v>61</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1896,80 +1917,103 @@
         <v>11</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="E48" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
-      <c r="D50" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="4"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="4"/>
-      <c r="E54" s="4"/>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="4"/>
-      <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="4"/>
@@ -1985,28 +2029,36 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="4"/>
-      <c r="D59" s="2"/>
+      <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="4"/>
+      <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="4"/>
+      <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="4"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="4"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="4"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{7F86150E-47FD-DA4A-9270-93DC9349E90E}"/>
-    <hyperlink ref="D24" r:id="rId2" xr:uid="{291D8364-1659-9C40-8C0D-A90D0A1EBE5D}"/>
-    <hyperlink ref="E49" r:id="rId3" display="https://www.okw.com/de/Kombikn%C3%B6pfe/A2510030.htm?var=af9c94b0-c2e5-11e2-8e2c-0050568225d7" xr:uid="{793912D7-3AE5-B64B-B387-83FB71750F27}"/>
-    <hyperlink ref="E50" r:id="rId4" display="https://www.okw.com/de/Kombikn%C3%B6pfe-Zubeh%C3%B6r/A4110000.htm" xr:uid="{6CBEB647-38E6-FE49-9E02-7C7E2E54AE89}"/>
-    <hyperlink ref="D34" r:id="rId5" xr:uid="{42748A18-28D2-A04B-AF2C-DB82690746F6}"/>
-    <hyperlink ref="D20" r:id="rId6" xr:uid="{CD6A2158-00CE-3142-9BE4-E087F48664CC}"/>
+    <hyperlink ref="D26" r:id="rId2" xr:uid="{291D8364-1659-9C40-8C0D-A90D0A1EBE5D}"/>
+    <hyperlink ref="E51" r:id="rId3" display="https://www.okw.com/de/Kombikn%C3%B6pfe/A2510030.htm?var=af9c94b0-c2e5-11e2-8e2c-0050568225d7" xr:uid="{793912D7-3AE5-B64B-B387-83FB71750F27}"/>
+    <hyperlink ref="E52" r:id="rId4" display="https://www.okw.com/de/Kombikn%C3%B6pfe-Zubeh%C3%B6r/A4110000.htm" xr:uid="{6CBEB647-38E6-FE49-9E02-7C7E2E54AE89}"/>
+    <hyperlink ref="D36" r:id="rId5" xr:uid="{42748A18-28D2-A04B-AF2C-DB82690746F6}"/>
+    <hyperlink ref="D22" r:id="rId6" xr:uid="{CD6A2158-00CE-3142-9BE4-E087F48664CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bill_of_Material.xlsx
+++ b/Bill_of_Material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dirk/Documents/GitHub/FreeVarioGauge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7FE15B-1955-EE40-BE58-DECE5F753C6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF537F86-3E03-CD4F-B5EE-53CE915ED769}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{A71850B3-3A10-CA42-999C-A02A84AA5A96}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="157">
   <si>
     <t>Value</t>
   </si>
@@ -486,6 +486,72 @@
   </si>
   <si>
     <t>BLM18AG 121</t>
+  </si>
+  <si>
+    <t>C9, C11, C14, C17</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>SMD-Widerstand, 0805, 68 kOhm</t>
+  </si>
+  <si>
+    <t>RND 0805 1 68K</t>
+  </si>
+  <si>
+    <t>SMD-Widerstand, 0805, 33 kOhm</t>
+  </si>
+  <si>
+    <t>RND 0805 1 33K</t>
+  </si>
+  <si>
+    <t>SMD-Widerstand, 0805, 820 Ohm</t>
+  </si>
+  <si>
+    <t>RND 0805 1 820</t>
+  </si>
+  <si>
+    <t>SMD-Widerstand, 0805, 470 Ohm</t>
+  </si>
+  <si>
+    <t>RND 0805 1 470</t>
+  </si>
+  <si>
+    <t>SMD-Widerstand, 0805, 330 Ohm</t>
+  </si>
+  <si>
+    <t>RND 0805 1 330</t>
+  </si>
+  <si>
+    <t>Vielschicht-Kerko, 4,7µF, 25V</t>
+  </si>
+  <si>
+    <t>KEM X5R0805 4,7U</t>
+  </si>
+  <si>
+    <t>Bipolartransistor, NPN</t>
+  </si>
+  <si>
+    <t>BC 848C SMD</t>
   </si>
 </sst>
 </file>
@@ -945,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE93BCC-B60F-D148-9D08-040AD6C1FD16}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1423,642 +1489,766 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12">
+      <c r="A12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="3" customFormat="1">
-      <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>144</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>145</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="C13" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="3" customFormat="1">
-      <c r="A14" s="3" t="s">
-        <v>84</v>
+      <c r="E13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>147</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="C14" s="3">
-        <v>3</v>
-      </c>
-      <c r="D14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>85</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="A15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="3" t="s">
-        <v>131</v>
+      <c r="A16" t="s">
+        <v>151</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="4" customFormat="1">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" s="4" customFormat="1">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="C19" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="3"/>
+        <v>85</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21">
+        <v>131</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="3">
         <v>2</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="4" customFormat="1">
+      <c r="A25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" s="4" customFormat="1">
+      <c r="A26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
       </c>
-      <c r="E27" t="s">
-        <v>32</v>
+      <c r="E27" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="3"/>
+        <v>79</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B36" t="s">
         <v>123</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
         <v>120</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B37" t="s">
         <v>35</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="9" t="s">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B38" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="9">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
+      <c r="C38" s="9">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
         <v>72</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B39" t="s">
         <v>73</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1">
-      <c r="A33" t="s">
+    <row r="40" spans="1:6" ht="15" customHeight="1">
+      <c r="A40" t="s">
         <v>125</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B40" t="s">
         <v>124</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
         <v>10</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B41" t="s">
         <v>8</v>
       </c>
-      <c r="C34">
+      <c r="C41">
         <v>2</v>
       </c>
-      <c r="D34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
         <v>36</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B42" t="s">
         <v>37</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
         <v>39</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
         <v>67</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B44" t="s">
         <v>71</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="3" t="s">
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="3" t="s">
+    <row r="45" spans="1:6">
+      <c r="A45" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B45" t="s">
         <v>71</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="3" t="s">
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="3" t="s">
+    <row r="46" spans="1:6">
+      <c r="A46" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B46" t="s">
         <v>71</v>
       </c>
-      <c r="C39">
+      <c r="C46">
         <v>2</v>
       </c>
-      <c r="D39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="3" t="s">
+    <row r="47" spans="1:6">
+      <c r="A47" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1" t="s">
+    <row r="48" spans="1:6">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47">
-        <v>3</v>
-      </c>
-      <c r="D47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s">
-        <v>51</v>
-      </c>
-      <c r="E49" s="3"/>
+      <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
       </c>
       <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="E50" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>55</v>
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52">
-        <v>2</v>
-      </c>
-      <c r="D52" t="s">
-        <v>54</v>
+        <v>63</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="4"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="4"/>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="4"/>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="4"/>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="4"/>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="4"/>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="4"/>
-      <c r="D61" s="2"/>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="4"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="4"/>
+      <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="4"/>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="4"/>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="4"/>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="4"/>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="4"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="4"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="4"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{7F86150E-47FD-DA4A-9270-93DC9349E90E}"/>
-    <hyperlink ref="D26" r:id="rId2" xr:uid="{291D8364-1659-9C40-8C0D-A90D0A1EBE5D}"/>
-    <hyperlink ref="E51" r:id="rId3" display="https://www.okw.com/de/Kombikn%C3%B6pfe/A2510030.htm?var=af9c94b0-c2e5-11e2-8e2c-0050568225d7" xr:uid="{793912D7-3AE5-B64B-B387-83FB71750F27}"/>
-    <hyperlink ref="E52" r:id="rId4" display="https://www.okw.com/de/Kombikn%C3%B6pfe-Zubeh%C3%B6r/A4110000.htm" xr:uid="{6CBEB647-38E6-FE49-9E02-7C7E2E54AE89}"/>
-    <hyperlink ref="D36" r:id="rId5" xr:uid="{42748A18-28D2-A04B-AF2C-DB82690746F6}"/>
-    <hyperlink ref="D22" r:id="rId6" xr:uid="{CD6A2158-00CE-3142-9BE4-E087F48664CC}"/>
+    <hyperlink ref="D33" r:id="rId2" xr:uid="{291D8364-1659-9C40-8C0D-A90D0A1EBE5D}"/>
+    <hyperlink ref="E58" r:id="rId3" display="https://www.okw.com/de/Kombikn%C3%B6pfe/A2510030.htm?var=af9c94b0-c2e5-11e2-8e2c-0050568225d7" xr:uid="{793912D7-3AE5-B64B-B387-83FB71750F27}"/>
+    <hyperlink ref="E59" r:id="rId4" display="https://www.okw.com/de/Kombikn%C3%B6pfe-Zubeh%C3%B6r/A4110000.htm" xr:uid="{6CBEB647-38E6-FE49-9E02-7C7E2E54AE89}"/>
+    <hyperlink ref="D43" r:id="rId5" xr:uid="{42748A18-28D2-A04B-AF2C-DB82690746F6}"/>
+    <hyperlink ref="D29" r:id="rId6" xr:uid="{CD6A2158-00CE-3142-9BE4-E087F48664CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bill_of_Material.xlsx
+++ b/Bill_of_Material.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dirk/Documents/GitHub/FreeVarioGauge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dirk/Libelle/OpenVario/e-Vario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF537F86-3E03-CD4F-B5EE-53CE915ED769}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C3B11C-300E-A547-8957-7C364D89672F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{A71850B3-3A10-CA42-999C-A02A84AA5A96}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="158">
   <si>
     <t>Value</t>
   </si>
@@ -60,18 +60,12 @@
     <t>https://www.ebay.de/itm/Espressif-ESP32-WLAN-Dev-Kit-Board-Development-Bluetooth-Wifi-v1-Deutsche-Post/163771189294?ssPageName=STRK%3AMEBIDX%3AIT&amp;_trksid=p2057872.m2749.l2649</t>
   </si>
   <si>
-    <t>Präz.-Buchsenleisten 2,54 mm, 1X15</t>
-  </si>
-  <si>
     <t>Reichelt</t>
   </si>
   <si>
     <t>MPE 115-1-015</t>
   </si>
   <si>
-    <t>Buchsenleiste, 8-pol</t>
-  </si>
-  <si>
     <t>SV2</t>
   </si>
   <si>
@@ -96,21 +90,12 @@
     <t>X2</t>
   </si>
   <si>
-    <t>SMD-Vielschicht-Keramikkondensator 10N</t>
-  </si>
-  <si>
     <t>C4</t>
   </si>
   <si>
     <t>X7R-G0805 10N</t>
   </si>
   <si>
-    <t>SMD-Vielschicht-Keramikkondensator 100N</t>
-  </si>
-  <si>
-    <t>SMD-Vielschichtkondensator G0805 - 10µF 16V</t>
-  </si>
-  <si>
     <t>X5R-G0805 10/16</t>
   </si>
   <si>
@@ -129,99 +114,54 @@
     <t>SMD-0805 10,0K</t>
   </si>
   <si>
-    <t>Stiftleisten 2,54 mm, 2X05, gewinkelt</t>
-  </si>
-  <si>
     <t>MPE 088-2-010</t>
   </si>
   <si>
     <t>X3</t>
   </si>
   <si>
-    <t>36pol. Stiftleiste, gewinkelt</t>
-  </si>
-  <si>
     <t>Speaker</t>
   </si>
   <si>
     <t>SL 1X36W 2,54</t>
   </si>
   <si>
-    <t>Micro Lautsprecher Speaker 35 mm 4 Ohm 3W</t>
-  </si>
-  <si>
     <t>https://www.ebay.de/itm/Rund-Micro-Lautsprecher-Speaker-35-mm-4-Ohm-3W-fur-DIY-Reparatur/332662823028</t>
   </si>
   <si>
     <t>Vario Encoder Board</t>
   </si>
   <si>
-    <t>Drehpotentiometer, 25 kOhm</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
     <t>PIH T16SHM4N253B</t>
   </si>
   <si>
-    <t>Buchsenleiste, 10-pol</t>
-  </si>
-  <si>
     <t>RND 205-00654</t>
   </si>
   <si>
-    <t>Kippschalter 6A-125VAC, 1x Ein-Aus-Ein</t>
-  </si>
-  <si>
     <t>MS 500C</t>
   </si>
   <si>
-    <t>Drehencoder</t>
-  </si>
-  <si>
     <t>SW1</t>
   </si>
   <si>
-    <t>https://www.ebay.de/itm/Bourns-Mechanical-Encoder-Rotary-Incremental-Tastend-5V-2Channel-2-Stück/361917632981?ssPageName=STRK%3AMEBIDX%3AIT&amp;_trksid=p2057872.m2749.l2649</t>
-  </si>
-  <si>
-    <t>Hohlschrauben (wie z.B. beim Funke ATR833)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUNDKNOPF 10, ohne Strich, 3mm Achsbohrung </t>
-  </si>
-  <si>
     <t>https://www.okw.com/</t>
   </si>
   <si>
-    <t>A2510030</t>
-  </si>
-  <si>
-    <t>Deckel 10, ohne Strich</t>
-  </si>
-  <si>
     <t>A4110000</t>
   </si>
   <si>
     <t>Q1, Q2</t>
   </si>
   <si>
-    <t>JST - Crimpkontakt, Buchse - XH</t>
-  </si>
-  <si>
     <t>JST XH CKB</t>
   </si>
   <si>
-    <t>JST - Stiftleiste, gerade, 1x3-polig - XH</t>
-  </si>
-  <si>
     <t>JST XH3P ST</t>
   </si>
   <si>
-    <t>JST - Buchsengehäuse, 1x3-polig - XH</t>
-  </si>
-  <si>
     <t>JST XH3P BU</t>
   </si>
   <si>
@@ -231,12 +171,6 @@
     <t>NCP 1117 ST33T3G </t>
   </si>
   <si>
-    <t>JST - Buchsengehäuse, 1x2-polig - XH</t>
-  </si>
-  <si>
-    <t>JST - Stiftleiste, 90°, 1x2-polig - XH</t>
-  </si>
-  <si>
     <t>JST XH2P ST90</t>
   </si>
   <si>
@@ -246,9 +180,6 @@
     <t>﻿STF-WOELBKLAPPEN</t>
   </si>
   <si>
-    <t>Schiebeschalter 1x UM, stehend</t>
-  </si>
-  <si>
     <t>X4</t>
   </si>
   <si>
@@ -261,18 +192,12 @@
     <t>X7R-G0805 100N</t>
   </si>
   <si>
-    <t>Kühlkörper SMD 6,3 x4,8x 5,0mm</t>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
     <t>ICK SMD A5</t>
   </si>
   <si>
-    <t>Wärmeleitfolie selbstklebend</t>
-  </si>
-  <si>
     <t>https://www.ebay.de/itm/EC360-ADHESIVE-WHITE-Wärmeleitfolie-kleber-50x50mm-Doppelseitig-3W-mK-WLPad/113931974912?ssPageName=STRK%3AMEBIDX%3AIT&amp;_trksid=p2057872.m2749.l2649</t>
   </si>
   <si>
@@ -280,9 +205,6 @@
   </si>
   <si>
     <t>C1</t>
-  </si>
-  <si>
-    <t>SMD-Vielschichtkondensator G0805 - 1,0µF 50V</t>
   </si>
   <si>
     <t>X7R-G0805 1,0/50</t>
@@ -359,6 +281,150 @@
     <t>EA WF050-40ST</t>
   </si>
   <si>
+    <t>MOLEX 541044031</t>
+  </si>
+  <si>
+    <t>C164172</t>
+  </si>
+  <si>
+    <t>ZIF SMD</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>C83170</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>C49678</t>
+  </si>
+  <si>
+    <t>1µF</t>
+  </si>
+  <si>
+    <t>10µF</t>
+  </si>
+  <si>
+    <t>C77083</t>
+  </si>
+  <si>
+    <t>C77075</t>
+  </si>
+  <si>
+    <t>PAM8302A</t>
+  </si>
+  <si>
+    <t>C113367</t>
+  </si>
+  <si>
+    <t>MSOP8</t>
+  </si>
+  <si>
+    <t>PAM8302AASCR</t>
+  </si>
+  <si>
+    <t>C26537</t>
+  </si>
+  <si>
+    <t>SOT-223</t>
+  </si>
+  <si>
+    <t>C17314</t>
+  </si>
+  <si>
+    <t>C84376</t>
+  </si>
+  <si>
+    <t>https://www.luna-electronic.de/de/tft-displays/newhaven-display-nhd-2-4-240320cf-csxn-f-2-4-sunlight-readable-tft.html</t>
+  </si>
+  <si>
+    <t>JP1</t>
+  </si>
+  <si>
+    <t>JP3</t>
+  </si>
+  <si>
+    <t>JP2</t>
+  </si>
+  <si>
+    <t>MPE 115-1-007</t>
+  </si>
+  <si>
+    <t>Ebay, Mouser</t>
+  </si>
+  <si>
+    <t>215877-1</t>
+  </si>
+  <si>
+    <t>C15, C16</t>
+  </si>
+  <si>
+    <t>L1, L2</t>
+  </si>
+  <si>
+    <t>NPO-G0805 220P</t>
+  </si>
+  <si>
+    <t>EMI Suppression Filter SMD0603 BLM18 120 Ohm</t>
+  </si>
+  <si>
+    <t>BLM18AG 121</t>
+  </si>
+  <si>
+    <t>C9, C11, C14, C17</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>RND 0805 1 68K</t>
+  </si>
+  <si>
+    <t>RND 0805 1 33K</t>
+  </si>
+  <si>
+    <t>RND 0805 1 820</t>
+  </si>
+  <si>
+    <t>RND 0805 1 470</t>
+  </si>
+  <si>
+    <t>RND 0805 1 330</t>
+  </si>
+  <si>
+    <t>KEM X5R0805 4,7U</t>
+  </si>
+  <si>
+    <t>BC 848C SMD</t>
+  </si>
+  <si>
+    <t>Precision sockets 2,54 mm, 1X15</t>
+  </si>
+  <si>
     <r>
       <t>EA WF050-</t>
     </r>
@@ -376,182 +442,119 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri Light (Überschriften)"/>
       </rPr>
-      <t>ZIFF-Stecker</t>
+      <t>ZIFF conector</t>
     </r>
   </si>
   <si>
-    <t>MOLEX 541044031</t>
-  </si>
-  <si>
-    <t>C164172</t>
-  </si>
-  <si>
-    <t>ZIF SMD</t>
-  </si>
-  <si>
-    <t>10nF</t>
-  </si>
-  <si>
-    <t>C83170</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>0805</t>
-  </si>
-  <si>
-    <t>C49678</t>
-  </si>
-  <si>
-    <t>1µF</t>
-  </si>
-  <si>
-    <t>10µF</t>
-  </si>
-  <si>
-    <t>C77083</t>
-  </si>
-  <si>
-    <t>C77075</t>
-  </si>
-  <si>
-    <t>PAM8302A</t>
-  </si>
-  <si>
-    <t>C113367</t>
-  </si>
-  <si>
-    <t>MSOP8</t>
-  </si>
-  <si>
-    <t>PAM8302AASCR</t>
-  </si>
-  <si>
-    <t>C26537</t>
-  </si>
-  <si>
-    <t>SOT-223</t>
-  </si>
-  <si>
-    <t>C17314</t>
-  </si>
-  <si>
-    <t>C84376</t>
-  </si>
-  <si>
-    <t>https://www.luna-electronic.de/de/tft-displays/newhaven-display-nhd-2-4-240320cf-csxn-f-2-4-sunlight-readable-tft.html</t>
-  </si>
-  <si>
-    <t>Stapelleiste 2x4 h=26,5mm</t>
-  </si>
-  <si>
-    <t>Stapelleiste 2x2 h=26,5mm</t>
-  </si>
-  <si>
-    <t>JP1</t>
-  </si>
-  <si>
-    <t>JP3</t>
-  </si>
-  <si>
-    <t>JP2</t>
-  </si>
-  <si>
-    <t>Präz.-Buchsenleisten 2,54 mm, 1x7</t>
-  </si>
-  <si>
-    <t>MPE 115-1-007</t>
-  </si>
-  <si>
-    <t>Ebay, Mouser</t>
-  </si>
-  <si>
-    <t>215877-1</t>
-  </si>
-  <si>
-    <t>C15, C16</t>
-  </si>
-  <si>
-    <t>L1, L2</t>
-  </si>
-  <si>
-    <t>SMD-Vielschicht-Keramikkondensator 220P, 5%</t>
-  </si>
-  <si>
-    <t>NPO-G0805 220P</t>
-  </si>
-  <si>
-    <t>EMI Suppression Filter SMD0603 BLM18 120 Ohm</t>
-  </si>
-  <si>
-    <t>BLM18AG 121</t>
-  </si>
-  <si>
-    <t>C9, C11, C14, C17</t>
-  </si>
-  <si>
-    <t>C18</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>SMD-Widerstand, 0805, 68 kOhm</t>
-  </si>
-  <si>
-    <t>RND 0805 1 68K</t>
-  </si>
-  <si>
-    <t>SMD-Widerstand, 0805, 33 kOhm</t>
-  </si>
-  <si>
-    <t>RND 0805 1 33K</t>
-  </si>
-  <si>
-    <t>SMD-Widerstand, 0805, 820 Ohm</t>
-  </si>
-  <si>
-    <t>RND 0805 1 820</t>
-  </si>
-  <si>
-    <t>SMD-Widerstand, 0805, 470 Ohm</t>
-  </si>
-  <si>
-    <t>RND 0805 1 470</t>
-  </si>
-  <si>
-    <t>SMD-Widerstand, 0805, 330 Ohm</t>
-  </si>
-  <si>
-    <t>RND 0805 1 330</t>
-  </si>
-  <si>
-    <t>Vielschicht-Kerko, 4,7µF, 25V</t>
-  </si>
-  <si>
-    <t>KEM X5R0805 4,7U</t>
-  </si>
-  <si>
-    <t>Bipolartransistor, NPN</t>
-  </si>
-  <si>
-    <t>BC 848C SMD</t>
+    <t>SMD chip resistor, 0805, 10 kOhm</t>
+  </si>
+  <si>
+    <t>SMD chip resistor, 0805, 68 kOhm</t>
+  </si>
+  <si>
+    <t>SMD chip resistor, 0805, 33 kOhm</t>
+  </si>
+  <si>
+    <t>SMD chip resistor, 0805, 820 Ohm</t>
+  </si>
+  <si>
+    <t>SMD chip resistor, 0805, 470 Ohm</t>
+  </si>
+  <si>
+    <t>SMD chip resistor, 0805, 330 Ohm</t>
+  </si>
+  <si>
+    <t>SMD multilayer capacitor G0805 - 1,0µF 50V</t>
+  </si>
+  <si>
+    <t>SMD multilayer capacitor G0805 - 10µF 16V</t>
+  </si>
+  <si>
+    <t>SMD multilayer ceramic capacitor 10N</t>
+  </si>
+  <si>
+    <t>SMD multilayer ceramic capacitor 100N</t>
+  </si>
+  <si>
+    <t>SMD multilayer ceramic capacitor 220P, 5%</t>
+  </si>
+  <si>
+    <t>multilayer ceramic capacitor, 4,7µF, 25V</t>
+  </si>
+  <si>
+    <t>transistor, NPN</t>
+  </si>
+  <si>
+    <t>Heat sink SMD 6,3 x4,8x 5,0mm</t>
+  </si>
+  <si>
+    <t>Pin headers 2.54 mm, 2X05, angled</t>
+  </si>
+  <si>
+    <t>Stack bar 2x4 h=26,5mm</t>
+  </si>
+  <si>
+    <t>Stack bar 2x2 h=26,5mm</t>
+  </si>
+  <si>
+    <t>Slide switch 1x UM, upright</t>
+  </si>
+  <si>
+    <t>Precision sockets 2,54 mm, 1x7</t>
+  </si>
+  <si>
+    <t>2-pin header, angled</t>
+  </si>
+  <si>
+    <t>Micro Speaker 35 mm 4 Ohm 3W</t>
+  </si>
+  <si>
+    <t>JST - crimp contact, socket - XH</t>
+  </si>
+  <si>
+    <t>Potentiometer, 25 kOhm</t>
+  </si>
+  <si>
+    <t>Pinheader female, 10-pin</t>
+  </si>
+  <si>
+    <t>Pinheader female, 8-pin</t>
+  </si>
+  <si>
+    <t>JST - pin header, straight, 1x3-pin - XH</t>
+  </si>
+  <si>
+    <t>JST - socket housing, 1x3-pin - XH</t>
+  </si>
+  <si>
+    <t>JST — pin header, 90°, 1x2-pin - XH</t>
+  </si>
+  <si>
+    <t>JST — socket housing, 1x2-pin - XH</t>
+  </si>
+  <si>
+    <t>Toggle switch 6A-125VAC, 1x On-Off-ON</t>
+  </si>
+  <si>
+    <t>Encoder</t>
+  </si>
+  <si>
+    <t>Banjo bolts (wie z.B. beim Funke ATR833)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUND KNOB 10, WITHOUT LINE, 4mm Bore hole </t>
+  </si>
+  <si>
+    <t>A2510040</t>
+  </si>
+  <si>
+    <t>COVER 10, WITHOUT LINE</t>
+  </si>
+  <si>
+    <t>Alps STEC11B03</t>
+  </si>
+  <si>
+    <t>Self-adhesive thermal foil</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1017,7 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1371,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1390,260 +1393,260 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C18" s="3">
         <v>5</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="C19" s="3">
         <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1651,75 +1654,75 @@
         <v>131</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="4" customFormat="1">
       <c r="A25" s="3" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
@@ -1730,79 +1733,79 @@
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1">
       <c r="A26" s="3" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1821,62 +1824,62 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C34">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1886,10 +1889,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="9" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C38" s="9">
         <v>1</v>
@@ -1900,41 +1903,41 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -1943,94 +1946,94 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
         <v>11</v>
-      </c>
-      <c r="E41" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2038,127 +2041,126 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C54">
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56" t="s">
-        <v>51</v>
-      </c>
-      <c r="E56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -2167,35 +2169,35 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2271,156 +2273,156 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="D11" s="8" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2468,44 +2470,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2588,44 +2590,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/Bill_of_Material.xlsx
+++ b/Bill_of_Material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dirk/Libelle/OpenVario/e-Vario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C3B11C-300E-A547-8957-7C364D89672F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB4997A-3310-814C-9F3A-64000E4939CC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{A71850B3-3A10-CA42-999C-A02A84AA5A96}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="160">
   <si>
     <t>Value</t>
   </si>
@@ -555,6 +555,12 @@
   </si>
   <si>
     <t>Self-adhesive thermal foil</t>
+  </si>
+  <si>
+    <t>Pinheader female, 4-pin</t>
+  </si>
+  <si>
+    <t>RND 205-00651</t>
   </si>
 </sst>
 </file>
@@ -1014,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE93BCC-B60F-D148-9D08-040AD6C1FD16}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1423,272 +1429,272 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>97</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="7" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>120</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="3">
         <v>2</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
         <v>27</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>112</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" t="s">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>114</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>113</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="3" customFormat="1">
-      <c r="A18" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="3">
-        <v>5</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="3" customFormat="1">
+      <c r="A20" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C20" s="3">
         <v>4</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2</v>
+        <v>128</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -1697,309 +1703,309 @@
         <v>10</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C25" s="3">
         <v>2</v>
       </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" s="4" customFormat="1">
-      <c r="A25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1">
       <c r="A26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" s="4" customFormat="1">
+      <c r="A27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B29" t="s">
         <v>41</v>
       </c>
       <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
         <v>7</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>8</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F35" s="3"/>
+        <v>121</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>94</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
         <v>136</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>29</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="9" t="s">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B39" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="9">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
+      <c r="C39" s="9">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
         <v>138</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>50</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1">
-      <c r="A40" t="s">
+    <row r="41" spans="1:6" ht="15" customHeight="1">
+      <c r="A41" t="s">
         <v>139</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>95</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>119</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="D41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>32</v>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
         <v>149</v>
-      </c>
-      <c r="B44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
@@ -2011,63 +2017,63 @@
         <v>10</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B46" t="s">
         <v>49</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="3"/>
-    </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B50" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" t="s">
-        <v>35</v>
-      </c>
+      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2076,114 +2082,117 @@
         <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="3">
-        <v>1</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>44</v>
+        <v>144</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B53" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="C53" s="3">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B54" t="s">
         <v>19</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D54" t="s">
         <v>10</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D55" t="s">
         <v>10</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B56" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
       <c r="E56" s="3" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="B57" t="s">
+        <v>38</v>
       </c>
       <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="E57" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
-      <c r="D58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>154</v>
-      </c>
+      <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -2192,24 +2201,34 @@
         <v>39</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="4"/>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="4"/>
-      <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="4"/>
@@ -2229,10 +2248,11 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="4"/>
-      <c r="D68" s="2"/>
+      <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="4"/>
+      <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="4"/>
@@ -2242,15 +2262,18 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="4"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{7F86150E-47FD-DA4A-9270-93DC9349E90E}"/>
-    <hyperlink ref="D33" r:id="rId2" xr:uid="{291D8364-1659-9C40-8C0D-A90D0A1EBE5D}"/>
-    <hyperlink ref="E58" r:id="rId3" display="https://www.okw.com/de/Kombikn%C3%B6pfe/A2510030.htm?var=af9c94b0-c2e5-11e2-8e2c-0050568225d7" xr:uid="{793912D7-3AE5-B64B-B387-83FB71750F27}"/>
-    <hyperlink ref="E59" r:id="rId4" display="https://www.okw.com/de/Kombikn%C3%B6pfe-Zubeh%C3%B6r/A4110000.htm" xr:uid="{6CBEB647-38E6-FE49-9E02-7C7E2E54AE89}"/>
-    <hyperlink ref="D43" r:id="rId5" xr:uid="{42748A18-28D2-A04B-AF2C-DB82690746F6}"/>
-    <hyperlink ref="D29" r:id="rId6" xr:uid="{CD6A2158-00CE-3142-9BE4-E087F48664CC}"/>
+    <hyperlink ref="D34" r:id="rId2" xr:uid="{291D8364-1659-9C40-8C0D-A90D0A1EBE5D}"/>
+    <hyperlink ref="E59" r:id="rId3" display="https://www.okw.com/de/Kombikn%C3%B6pfe/A2510030.htm?var=af9c94b0-c2e5-11e2-8e2c-0050568225d7" xr:uid="{793912D7-3AE5-B64B-B387-83FB71750F27}"/>
+    <hyperlink ref="E60" r:id="rId4" display="https://www.okw.com/de/Kombikn%C3%B6pfe-Zubeh%C3%B6r/A4110000.htm" xr:uid="{6CBEB647-38E6-FE49-9E02-7C7E2E54AE89}"/>
+    <hyperlink ref="D44" r:id="rId5" xr:uid="{42748A18-28D2-A04B-AF2C-DB82690746F6}"/>
+    <hyperlink ref="D30" r:id="rId6" xr:uid="{CD6A2158-00CE-3142-9BE4-E087F48664CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bill_of_Material.xlsx
+++ b/Bill_of_Material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dirk/Libelle/OpenVario/e-Vario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB4997A-3310-814C-9F3A-64000E4939CC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DF84D9-BC0F-0349-A30C-12C462CA4DED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{A71850B3-3A10-CA42-999C-A02A84AA5A96}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="160">
   <si>
     <t>Value</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>SL 1X36W 2,54</t>
-  </si>
-  <si>
-    <t>https://www.ebay.de/itm/Rund-Micro-Lautsprecher-Speaker-35-mm-4-Ohm-3W-fur-DIY-Reparatur/332662823028</t>
   </si>
   <si>
     <t>Vario Encoder Board</t>
@@ -506,9 +503,6 @@
     <t>2-pin header, angled</t>
   </si>
   <si>
-    <t>Micro Speaker 35 mm 4 Ohm 3W</t>
-  </si>
-  <si>
     <t>JST - crimp contact, socket - XH</t>
   </si>
   <si>
@@ -561,6 +555,12 @@
   </si>
   <si>
     <t>RND 205-00651</t>
+  </si>
+  <si>
+    <t>Speaker LSM-S30K/P, 2W, 8Ohm</t>
+  </si>
+  <si>
+    <t>LSM-S30K/P</t>
   </si>
 </sst>
 </file>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE93BCC-B60F-D148-9D08-040AD6C1FD16}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1380,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1399,7 +1399,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1430,10 +1430,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1442,7 +1442,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1456,10 +1456,10 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" t="s">
         <v>97</v>
-      </c>
-      <c r="E9" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1481,7 +1481,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -1493,15 +1493,15 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -1516,10 +1516,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -1528,16 +1528,16 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1546,16 +1546,16 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -1564,16 +1564,16 @@
         <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1582,16 +1582,16 @@
         <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -1600,13 +1600,13 @@
         <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -1623,10 +1623,10 @@
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="3">
         <v>5</v>
@@ -1635,15 +1635,15 @@
         <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1">
       <c r="A20" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" s="3">
         <v>4</v>
@@ -1652,15 +1652,15 @@
         <v>10</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
@@ -1686,15 +1686,15 @@
         <v>10</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -1703,15 +1703,15 @@
         <v>10</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -1720,15 +1720,15 @@
         <v>10</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
@@ -1737,12 +1737,12 @@
         <v>10</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1">
       <c r="A26" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>23</v>
@@ -1756,10 +1756,10 @@
     </row>
     <row r="27" spans="1:6" s="4" customFormat="1">
       <c r="A27" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
@@ -1768,16 +1768,16 @@
         <v>10</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1786,15 +1786,15 @@
         <v>10</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1803,21 +1803,21 @@
         <v>10</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E30" s="3"/>
     </row>
@@ -1847,10 +1847,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1864,10 +1864,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -1876,16 +1876,16 @@
         <v>10</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B38" t="s">
         <v>29</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" s="9">
         <v>1</v>
@@ -1926,41 +1926,41 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
         <v>50</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
         <v>95</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B43" t="s">
         <v>30</v>
@@ -1994,21 +1994,27 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>141</v>
+        <v>158</v>
+      </c>
+      <c r="B44" t="s">
+        <v>30</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>32</v>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2017,15 +2023,15 @@
         <v>10</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2034,15 +2040,15 @@
         <v>10</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -2051,7 +2057,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2064,30 +2070,30 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
         <v>34</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
@@ -2099,12 +2105,12 @@
         <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>19</v>
@@ -2116,12 +2122,12 @@
         <v>10</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
         <v>19</v>
@@ -2133,12 +2139,12 @@
         <v>10</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B55" t="s">
         <v>19</v>
@@ -2150,12 +2156,12 @@
         <v>10</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2164,26 +2170,26 @@
         <v>10</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -2192,30 +2198,30 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
       <c r="D60" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2272,8 +2278,7 @@
     <hyperlink ref="D34" r:id="rId2" xr:uid="{291D8364-1659-9C40-8C0D-A90D0A1EBE5D}"/>
     <hyperlink ref="E59" r:id="rId3" display="https://www.okw.com/de/Kombikn%C3%B6pfe/A2510030.htm?var=af9c94b0-c2e5-11e2-8e2c-0050568225d7" xr:uid="{793912D7-3AE5-B64B-B387-83FB71750F27}"/>
     <hyperlink ref="E60" r:id="rId4" display="https://www.okw.com/de/Kombikn%C3%B6pfe-Zubeh%C3%B6r/A4110000.htm" xr:uid="{6CBEB647-38E6-FE49-9E02-7C7E2E54AE89}"/>
-    <hyperlink ref="D44" r:id="rId5" xr:uid="{42748A18-28D2-A04B-AF2C-DB82690746F6}"/>
-    <hyperlink ref="D30" r:id="rId6" xr:uid="{CD6A2158-00CE-3142-9BE4-E087F48664CC}"/>
+    <hyperlink ref="D30" r:id="rId5" xr:uid="{CD6A2158-00CE-3142-9BE4-E087F48664CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2296,16 +2301,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2316,24 +2321,24 @@
         <v>17</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2341,111 +2346,111 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2493,16 +2498,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2510,27 +2515,27 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2613,16 +2618,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2630,27 +2635,27 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/Bill_of_Material.xlsx
+++ b/Bill_of_Material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dirk/Libelle/OpenVario/e-Vario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DF84D9-BC0F-0349-A30C-12C462CA4DED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1A93D2-9129-AC4D-A7E5-C8A8C943E9C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{A71850B3-3A10-CA42-999C-A02A84AA5A96}"/>
   </bookViews>
@@ -545,9 +545,6 @@
     <t>COVER 10, WITHOUT LINE</t>
   </si>
   <si>
-    <t>Alps STEC11B03</t>
-  </si>
-  <si>
     <t>Self-adhesive thermal foil</t>
   </si>
   <si>
@@ -561,6 +558,9 @@
   </si>
   <si>
     <t>LSM-S30K/P</t>
+  </si>
+  <si>
+    <t>PEC11R-4230F-S0012</t>
   </si>
 </sst>
 </file>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE93BCC-B60F-D148-9D08-040AD6C1FD16}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1032,7 +1032,7 @@
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="95.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="257" max="257" width="53.5" bestFit="1" customWidth="1"/>
     <col min="258" max="258" width="14.5" bestFit="1" customWidth="1"/>
     <col min="259" max="259" width="9.33203125" bestFit="1" customWidth="1"/>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
         <v>92</v>
@@ -1442,7 +1442,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1808,7 +1808,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B30" t="s">
         <v>40</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B44" t="s">
         <v>30</v>
@@ -2006,7 +2006,7 @@
         <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2184,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:5">

--- a/Bill_of_Material.xlsx
+++ b/Bill_of_Material.xlsx
@@ -5,18 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dirk/Libelle/OpenVario/e-Vario/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dirk/Documents/GitHub/FreeVarioGauge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1A93D2-9129-AC4D-A7E5-C8A8C943E9C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE31D72D-7771-0142-A12F-F1F424447885}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{A71850B3-3A10-CA42-999C-A02A84AA5A96}"/>
   </bookViews>
   <sheets>
     <sheet name="Vario" sheetId="1" r:id="rId1"/>
-    <sheet name="BOM-PCB1" sheetId="2" r:id="rId2"/>
-    <sheet name="BOM-PCB2" sheetId="3" r:id="rId3"/>
-    <sheet name="BOM-PCB3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="135">
   <si>
     <t>Value</t>
   </si>
@@ -108,9 +105,6 @@
     <t>Vario Board 2</t>
   </si>
   <si>
-    <t>SMD-Widerstand, 0805, 10 kOhm</t>
-  </si>
-  <si>
     <t>SMD-0805 10,0K</t>
   </si>
   <si>
@@ -207,9 +201,6 @@
     <t>X7R-G0805 1,0/50</t>
   </si>
   <si>
-    <t>C9, C11, C14</t>
-  </si>
-  <si>
     <t>C6, C7, C10, C12, C13</t>
   </si>
   <si>
@@ -222,120 +213,10 @@
     <t>NCP 1117 ST50T3G</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Designator</t>
-  </si>
-  <si>
-    <t>Footprint</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>LCSC Part #</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>optional</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <t>SO-16</t>
-  </si>
-  <si>
-    <t>C143432</t>
-  </si>
-  <si>
     <t>EA WF050-40ST</t>
   </si>
   <si>
-    <t>MOLEX 541044031</t>
-  </si>
-  <si>
-    <t>C164172</t>
-  </si>
-  <si>
-    <t>ZIF SMD</t>
-  </si>
-  <si>
-    <t>10nF</t>
-  </si>
-  <si>
-    <t>C83170</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>0805</t>
-  </si>
-  <si>
-    <t>C49678</t>
-  </si>
-  <si>
-    <t>1µF</t>
-  </si>
-  <si>
-    <t>10µF</t>
-  </si>
-  <si>
-    <t>C77083</t>
-  </si>
-  <si>
-    <t>C77075</t>
-  </si>
-  <si>
     <t>PAM8302A</t>
-  </si>
-  <si>
-    <t>C113367</t>
-  </si>
-  <si>
-    <t>MSOP8</t>
-  </si>
-  <si>
-    <t>PAM8302AASCR</t>
-  </si>
-  <si>
-    <t>C26537</t>
-  </si>
-  <si>
-    <t>SOT-223</t>
-  </si>
-  <si>
-    <t>C17314</t>
-  </si>
-  <si>
-    <t>C84376</t>
   </si>
   <si>
     <t>https://www.luna-electronic.de/de/tft-displays/newhaven-display-nhd-2-4-240320cf-csxn-f-2-4-sunlight-readable-tft.html</t>
@@ -562,12 +443,18 @@
   <si>
     <t>PEC11R-4230F-S0012</t>
   </si>
+  <si>
+    <t>SMD chip resistor, 0805, 100 Ohm</t>
+  </si>
+  <si>
+    <t>RND 0805 1 100</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,25 +490,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri Light (Überschriften)"/>
@@ -647,21 +515,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -669,42 +531,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1022,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE93BCC-B60F-D148-9D08-040AD6C1FD16}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1380,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1399,7 +1239,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1413,7 +1253,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1430,10 +1270,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1442,7 +1282,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1456,14 +1296,14 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
@@ -1481,7 +1321,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -1493,15 +1333,15 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -1510,16 +1350,16 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -1528,16 +1368,16 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1546,16 +1386,16 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -1564,16 +1404,16 @@
         <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1582,16 +1422,16 @@
         <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -1600,13 +1440,13 @@
         <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -1623,10 +1463,10 @@
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3">
         <v>5</v>
@@ -1635,15 +1475,15 @@
         <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1">
       <c r="A20" s="3" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C20" s="3">
         <v>4</v>
@@ -1652,15 +1492,15 @@
         <v>10</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -1674,10 +1514,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
@@ -1686,15 +1526,15 @@
         <v>10</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -1703,15 +1543,15 @@
         <v>10</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -1720,15 +1560,15 @@
         <v>10</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
@@ -1737,12 +1577,12 @@
         <v>10</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1">
       <c r="A26" s="3" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>23</v>
@@ -1756,10 +1596,10 @@
     </row>
     <row r="27" spans="1:6" s="4" customFormat="1">
       <c r="A27" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
@@ -1768,16 +1608,16 @@
         <v>10</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1786,15 +1626,15 @@
         <v>10</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1803,21 +1643,21 @@
         <v>10</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" s="3"/>
     </row>
@@ -1847,10 +1687,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1859,15 +1699,15 @@
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -1876,16 +1716,16 @@
         <v>10</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1894,15 +1734,15 @@
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1911,42 +1751,42 @@
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="9">
+      <c r="A39" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="6">
         <v>1</v>
       </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="9"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
         <v>49</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1955,12 +1795,12 @@
         <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -1977,27 +1817,27 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
         <v>30</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2006,15 +1846,15 @@
         <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2023,15 +1863,15 @@
         <v>10</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2040,15 +1880,15 @@
         <v>10</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -2057,7 +1897,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2070,30 +1910,30 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
         <v>33</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
@@ -2105,12 +1945,12 @@
         <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>19</v>
@@ -2122,12 +1962,12 @@
         <v>10</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="B54" t="s">
         <v>19</v>
@@ -2139,12 +1979,12 @@
         <v>10</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="B55" t="s">
         <v>19</v>
@@ -2156,12 +1996,12 @@
         <v>10</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2170,26 +2010,26 @@
         <v>10</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -2198,30 +2038,30 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
       <c r="D60" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2282,441 +2122,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE57722-5B75-1D40-B9DC-B066A479B666}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="3"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="C15" s="8"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://lcsc.com/product-detail/RS232-ICs_Maxim-Integrated_MAX3232ECWE_Maxim-Integrated-MAX3232ECWE_C143432.html" xr:uid="{FFB8C294-ADB0-F040-8E94-CA7FA2EA3011}"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://lcsc.com/product-detail/FFC-FPC-Connectors_MOLEX_541044031_MOLEX-541044031_C164172.html" xr:uid="{A7338377-6668-2044-8707-7702B89446DA}"/>
-    <hyperlink ref="D5" r:id="rId3" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_10nF-103-10-50V_C83170.html" xr:uid="{898EF980-0C37-1645-A0A7-204CDB314404}"/>
-    <hyperlink ref="D7" r:id="rId4" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_muRata_GRM21BR71H105KA12L_1uF-105-10-50V_C77083.html" xr:uid="{1D7CFD7E-0378-D34D-93C2-E2A1F7CCE8B6}"/>
-    <hyperlink ref="D9" r:id="rId5" display="https://lcsc.com/product-detail/Audio-Power-OpAmps_Diodes-Incorporated_PAM8302AASCR_Diodes-Incorporated-PAM8302AASCR_C113367.html" xr:uid="{E725EF93-6260-8C48-A42F-BB8CA19F9EFB}"/>
-    <hyperlink ref="A9" r:id="rId6" display="https://lcsc.com/product-detail/Audio-Power-OpAmps_Diodes-Incorporated_PAM8302AASCR_Diodes-Incorporated-PAM8302AASCR_C113367.html" xr:uid="{D6D8886E-D7E2-A846-BA93-6765604167F3}"/>
-    <hyperlink ref="D10" r:id="rId7" display="https://lcsc.com/product-detail/Low-Dropout-Regulators-LDO_ON-Semiconductor-ON-NCP1117ST50T3G_C17314.html" xr:uid="{1C2BF8A9-1D03-DD4D-87A2-7145C42F989B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B9D977-3A0D-9F42-A6D8-BF8241070D0D}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="3"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="3"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="3"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="3"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="3"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="3"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="3"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5151FA7D-8764-CA4A-9E1E-220B2BFCB1B2}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="3"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="3"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="3"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="3"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="3"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="3"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="3"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Bill_of_Material.xlsx
+++ b/Bill_of_Material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dirk/Documents/GitHub/FreeVarioGauge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE31D72D-7771-0142-A12F-F1F424447885}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535A31F0-7290-974E-A6C8-2B59A27C12C9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{A71850B3-3A10-CA42-999C-A02A84AA5A96}"/>
   </bookViews>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>R1</t>
-  </si>
-  <si>
-    <t>PIH T16SHM4N253B</t>
   </si>
   <si>
     <t>RND 205-00654</t>
@@ -387,9 +384,6 @@
     <t>JST - crimp contact, socket - XH</t>
   </si>
   <si>
-    <t>Potentiometer, 25 kOhm</t>
-  </si>
-  <si>
     <t>Pinheader female, 10-pin</t>
   </si>
   <si>
@@ -448,6 +442,12 @@
   </si>
   <si>
     <t>RND 0805 1 100</t>
+  </si>
+  <si>
+    <t>Potentiometer, 25 kOhm or 22 kOhm</t>
+  </si>
+  <si>
+    <t>PIH T16SHM4N253B or PO4M-LOG 22K</t>
   </si>
 </sst>
 </file>
@@ -863,7 +863,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -871,8 +871,8 @@
     <col min="1" max="1" width="53.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="95.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.5" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" bestFit="1" customWidth="1"/>
     <col min="257" max="257" width="53.5" bestFit="1" customWidth="1"/>
     <col min="258" max="258" width="14.5" bestFit="1" customWidth="1"/>
     <col min="259" max="259" width="9.33203125" bestFit="1" customWidth="1"/>
@@ -1220,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1239,7 +1239,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1270,10 +1270,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1282,7 +1282,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1296,10 +1296,10 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
         <v>69</v>
-      </c>
-      <c r="E9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1321,7 +1321,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -1333,15 +1333,15 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -1350,16 +1350,16 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -1368,16 +1368,16 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1386,16 +1386,16 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -1404,16 +1404,16 @@
         <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1422,16 +1422,16 @@
         <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -1440,13 +1440,13 @@
         <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -1463,10 +1463,10 @@
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="3">
         <v>5</v>
@@ -1475,15 +1475,15 @@
         <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1">
       <c r="A20" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="3">
         <v>4</v>
@@ -1492,15 +1492,15 @@
         <v>10</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -1514,10 +1514,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
@@ -1526,15 +1526,15 @@
         <v>10</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -1543,15 +1543,15 @@
         <v>10</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -1560,15 +1560,15 @@
         <v>10</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
@@ -1577,12 +1577,12 @@
         <v>10</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1">
       <c r="A26" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>23</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="27" spans="1:6" s="4" customFormat="1">
       <c r="A27" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
@@ -1608,16 +1608,16 @@
         <v>10</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1626,15 +1626,15 @@
         <v>10</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1643,21 +1643,21 @@
         <v>10</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" s="3"/>
     </row>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1704,10 +1704,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -1716,16 +1716,16 @@
         <v>10</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s">
         <v>28</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" s="6">
         <v>1</v>
@@ -1766,41 +1766,41 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
         <v>48</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
         <v>67</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s">
         <v>29</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B44" t="s">
         <v>29</v>
@@ -1846,15 +1846,15 @@
         <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1863,15 +1863,15 @@
         <v>10</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1880,15 +1880,15 @@
         <v>10</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -1897,7 +1897,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1916,7 +1916,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B51" t="s">
         <v>32</v>
@@ -1928,12 +1928,12 @@
         <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
@@ -1945,12 +1945,12 @@
         <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>19</v>
@@ -1962,12 +1962,12 @@
         <v>10</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B54" t="s">
         <v>19</v>
@@ -1979,12 +1979,12 @@
         <v>10</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B55" t="s">
         <v>19</v>
@@ -1996,12 +1996,12 @@
         <v>10</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2010,26 +2010,26 @@
         <v>10</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -2038,30 +2038,30 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
       <c r="D60" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:5">

--- a/Bill_of_Material.xlsx
+++ b/Bill_of_Material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dirk/Documents/GitHub/FreeVarioGauge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535A31F0-7290-974E-A6C8-2B59A27C12C9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B40C8C5-E496-474F-B4BF-15F6085CE0AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{A71850B3-3A10-CA42-999C-A02A84AA5A96}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="137">
   <si>
     <t>Value</t>
   </si>
@@ -448,6 +448,12 @@
   </si>
   <si>
     <t>PIH T16SHM4N253B or PO4M-LOG 22K</t>
+  </si>
+  <si>
+    <t>PJ-242 - audio jack 2,5mm</t>
+  </si>
+  <si>
+    <t>Aliexpress</t>
   </si>
 </sst>
 </file>
@@ -860,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE93BCC-B60F-D148-9D08-040AD6C1FD16}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1901,42 +1907,40 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="3" t="s">
+      <c r="A48" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="3"/>
-    </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" t="s">
-        <v>134</v>
-      </c>
+      <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1945,114 +1949,117 @@
         <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="3">
-        <v>1</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>41</v>
+        <v>113</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B54" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B55" t="s">
         <v>19</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
         <v>10</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D56" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
       <c r="E57" s="3" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="B58" t="s">
+        <v>35</v>
       </c>
       <c r="C58">
-        <v>2</v>
-      </c>
-      <c r="E58" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
-      <c r="D59" t="s">
-        <v>36</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>123</v>
-      </c>
+      <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -2061,24 +2068,34 @@
         <v>36</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="4"/>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="4"/>
-      <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="4"/>
@@ -2098,10 +2115,11 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="4"/>
-      <c r="D69" s="2"/>
+      <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="4"/>
+      <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="4"/>
@@ -2111,13 +2129,16 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="4"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{7F86150E-47FD-DA4A-9270-93DC9349E90E}"/>
     <hyperlink ref="D34" r:id="rId2" xr:uid="{291D8364-1659-9C40-8C0D-A90D0A1EBE5D}"/>
-    <hyperlink ref="E59" r:id="rId3" display="https://www.okw.com/de/Kombikn%C3%B6pfe/A2510030.htm?var=af9c94b0-c2e5-11e2-8e2c-0050568225d7" xr:uid="{793912D7-3AE5-B64B-B387-83FB71750F27}"/>
-    <hyperlink ref="E60" r:id="rId4" display="https://www.okw.com/de/Kombikn%C3%B6pfe-Zubeh%C3%B6r/A4110000.htm" xr:uid="{6CBEB647-38E6-FE49-9E02-7C7E2E54AE89}"/>
+    <hyperlink ref="E60" r:id="rId3" display="https://www.okw.com/de/Kombikn%C3%B6pfe/A2510030.htm?var=af9c94b0-c2e5-11e2-8e2c-0050568225d7" xr:uid="{793912D7-3AE5-B64B-B387-83FB71750F27}"/>
+    <hyperlink ref="E61" r:id="rId4" display="https://www.okw.com/de/Kombikn%C3%B6pfe-Zubeh%C3%B6r/A4110000.htm" xr:uid="{6CBEB647-38E6-FE49-9E02-7C7E2E54AE89}"/>
     <hyperlink ref="D30" r:id="rId5" xr:uid="{CD6A2158-00CE-3142-9BE4-E087F48664CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Bill_of_Material.xlsx
+++ b/Bill_of_Material.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dirk/Documents/GitHub/FreeVarioGauge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dirk/Libelle/OpenVario/e-Vario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B40C8C5-E496-474F-B4BF-15F6085CE0AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FBA9F5-E750-3F49-8A08-2DE269E6D56B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{A71850B3-3A10-CA42-999C-A02A84AA5A96}"/>
   </bookViews>
   <sheets>
     <sheet name="Vario" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM-PCB1" sheetId="2" r:id="rId2"/>
+    <sheet name="BOM-PCB2" sheetId="3" r:id="rId3"/>
+    <sheet name="BOM-PCB3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="164">
   <si>
     <t>Value</t>
   </si>
@@ -105,6 +108,9 @@
     <t>Vario Board 2</t>
   </si>
   <si>
+    <t>SMD-Widerstand, 0805, 10 kOhm</t>
+  </si>
+  <si>
     <t>SMD-0805 10,0K</t>
   </si>
   <si>
@@ -159,9 +165,6 @@
     <t>NCP 1117 ST33T3G </t>
   </si>
   <si>
-    <t>JST XH2P ST90</t>
-  </si>
-  <si>
     <t>JST XH2P BU</t>
   </si>
   <si>
@@ -198,6 +201,9 @@
     <t>X7R-G0805 1,0/50</t>
   </si>
   <si>
+    <t>C9, C11, C14</t>
+  </si>
+  <si>
     <t>C6, C7, C10, C12, C13</t>
   </si>
   <si>
@@ -210,10 +216,120 @@
     <t>NCP 1117 ST50T3G</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Designator</t>
+  </si>
+  <si>
+    <t>Footprint</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LCSC Part #</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>optional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>SO-16</t>
+  </si>
+  <si>
+    <t>C143432</t>
+  </si>
+  <si>
     <t>EA WF050-40ST</t>
   </si>
   <si>
+    <t>MOLEX 541044031</t>
+  </si>
+  <si>
+    <t>C164172</t>
+  </si>
+  <si>
+    <t>ZIF SMD</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>C83170</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>C49678</t>
+  </si>
+  <si>
+    <t>1µF</t>
+  </si>
+  <si>
+    <t>10µF</t>
+  </si>
+  <si>
+    <t>C77083</t>
+  </si>
+  <si>
+    <t>C77075</t>
+  </si>
+  <si>
     <t>PAM8302A</t>
+  </si>
+  <si>
+    <t>C113367</t>
+  </si>
+  <si>
+    <t>MSOP8</t>
+  </si>
+  <si>
+    <t>PAM8302AASCR</t>
+  </si>
+  <si>
+    <t>C26537</t>
+  </si>
+  <si>
+    <t>SOT-223</t>
+  </si>
+  <si>
+    <t>C17314</t>
+  </si>
+  <si>
+    <t>C84376</t>
   </si>
   <si>
     <t>https://www.luna-electronic.de/de/tft-displays/newhaven-display-nhd-2-4-240320cf-csxn-f-2-4-sunlight-readable-tft.html</t>
@@ -396,9 +512,6 @@
     <t>JST - socket housing, 1x3-pin - XH</t>
   </si>
   <si>
-    <t>JST — pin header, 90°, 1x2-pin - XH</t>
-  </si>
-  <si>
     <t>JST — socket housing, 1x2-pin - XH</t>
   </si>
   <si>
@@ -444,23 +557,29 @@
     <t>RND 0805 1 100</t>
   </si>
   <si>
-    <t>Potentiometer, 25 kOhm or 22 kOhm</t>
-  </si>
-  <si>
-    <t>PIH T16SHM4N253B or PO4M-LOG 22K</t>
+    <t>PIH T16SHM4N253B oder PO4M-LOG 22K</t>
+  </si>
+  <si>
+    <t>Potentiometer, 25 kOhm bzw. 22kOhm</t>
   </si>
   <si>
     <t>PJ-242 - audio jack 2,5mm</t>
   </si>
   <si>
     <t>Aliexpress</t>
+  </si>
+  <si>
+    <t>JST XH3P ST90</t>
+  </si>
+  <si>
+    <t>JST - Stiftleiste, 90°, 1x3-polig - XH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,6 +615,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri Light (Überschriften)"/>
@@ -521,15 +659,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -537,20 +681,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -869,7 +1035,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:D48"/>
+      <selection activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -877,8 +1043,8 @@
     <col min="1" max="1" width="53.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.5" customWidth="1"/>
-    <col min="5" max="5" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="95.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.1640625" bestFit="1" customWidth="1"/>
     <col min="257" max="257" width="53.5" bestFit="1" customWidth="1"/>
     <col min="258" max="258" width="14.5" bestFit="1" customWidth="1"/>
     <col min="259" max="259" width="9.33203125" bestFit="1" customWidth="1"/>
@@ -1226,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1245,7 +1411,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1259,7 +1425,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1276,10 +1442,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1288,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1302,14 +1468,14 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
@@ -1327,7 +1493,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -1339,15 +1505,15 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -1356,16 +1522,16 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -1374,16 +1540,16 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1392,16 +1558,16 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -1410,16 +1576,16 @@
         <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1428,16 +1594,16 @@
         <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -1446,13 +1612,13 @@
         <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -1469,7 +1635,7 @@
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>54</v>
@@ -1486,10 +1652,10 @@
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1">
       <c r="A20" s="3" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="C20" s="3">
         <v>4</v>
@@ -1503,10 +1669,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -1520,10 +1686,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
@@ -1532,15 +1698,15 @@
         <v>10</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -1549,15 +1715,15 @@
         <v>10</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -1566,15 +1732,15 @@
         <v>10</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
@@ -1583,12 +1749,12 @@
         <v>10</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1">
       <c r="A26" s="3" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>23</v>
@@ -1602,7 +1768,7 @@
     </row>
     <row r="27" spans="1:6" s="4" customFormat="1">
       <c r="A27" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>51</v>
@@ -1614,33 +1780,33 @@
         <v>10</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1654,10 +1820,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1693,7 +1859,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B35" t="s">
         <v>49</v>
@@ -1705,12 +1871,12 @@
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>55</v>
@@ -1728,10 +1894,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1740,15 +1906,15 @@
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1757,22 +1923,22 @@
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="6">
+      <c r="A39" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="9">
         <v>1</v>
       </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="6"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="9"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="B40" t="s">
         <v>47</v>
@@ -1789,10 +1955,10 @@
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1801,12 +1967,12 @@
         <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -1823,10 +1989,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1835,15 +2001,15 @@
         <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1852,12 +2018,12 @@
         <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
@@ -1873,8 +2039,8 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="3" t="s">
-        <v>117</v>
+      <c r="A46" t="s">
+        <v>163</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
@@ -1886,12 +2052,12 @@
         <v>10</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B47" t="s">
         <v>46</v>
@@ -1903,12 +2069,12 @@
         <v>10</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" t="s">
-        <v>135</v>
+      <c r="A48" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
@@ -1917,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="E48" s="3"/>
     </row>
@@ -1931,16 +2097,16 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1949,12 +2115,12 @@
         <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
@@ -1966,12 +2132,12 @@
         <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>19</v>
@@ -1983,12 +2149,12 @@
         <v>10</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="B55" t="s">
         <v>19</v>
@@ -2000,12 +2166,12 @@
         <v>10</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B56" t="s">
         <v>19</v>
@@ -2017,12 +2183,12 @@
         <v>10</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2031,26 +2197,26 @@
         <v>10</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -2059,30 +2225,30 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2143,4 +2309,441 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE57722-5B75-1D40-B9DC-B066A479B666}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="3"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://lcsc.com/product-detail/RS232-ICs_Maxim-Integrated_MAX3232ECWE_Maxim-Integrated-MAX3232ECWE_C143432.html" xr:uid="{FFB8C294-ADB0-F040-8E94-CA7FA2EA3011}"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://lcsc.com/product-detail/FFC-FPC-Connectors_MOLEX_541044031_MOLEX-541044031_C164172.html" xr:uid="{A7338377-6668-2044-8707-7702B89446DA}"/>
+    <hyperlink ref="D5" r:id="rId3" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_10nF-103-10-50V_C83170.html" xr:uid="{898EF980-0C37-1645-A0A7-204CDB314404}"/>
+    <hyperlink ref="D7" r:id="rId4" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_muRata_GRM21BR71H105KA12L_1uF-105-10-50V_C77083.html" xr:uid="{1D7CFD7E-0378-D34D-93C2-E2A1F7CCE8B6}"/>
+    <hyperlink ref="D9" r:id="rId5" display="https://lcsc.com/product-detail/Audio-Power-OpAmps_Diodes-Incorporated_PAM8302AASCR_Diodes-Incorporated-PAM8302AASCR_C113367.html" xr:uid="{E725EF93-6260-8C48-A42F-BB8CA19F9EFB}"/>
+    <hyperlink ref="A9" r:id="rId6" display="https://lcsc.com/product-detail/Audio-Power-OpAmps_Diodes-Incorporated_PAM8302AASCR_Diodes-Incorporated-PAM8302AASCR_C113367.html" xr:uid="{D6D8886E-D7E2-A846-BA93-6765604167F3}"/>
+    <hyperlink ref="D10" r:id="rId7" display="https://lcsc.com/product-detail/Low-Dropout-Regulators-LDO_ON-Semiconductor-ON-NCP1117ST50T3G_C17314.html" xr:uid="{1C2BF8A9-1D03-DD4D-87A2-7145C42F989B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B9D977-3A0D-9F42-A6D8-BF8241070D0D}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="3"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="3"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="3"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="3"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="3"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="3"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="3"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5151FA7D-8764-CA4A-9E1E-220B2BFCB1B2}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="3"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="3"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="3"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="3"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="3"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="3"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="3"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Bill_of_Material.xlsx
+++ b/Bill_of_Material.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dirk/Libelle/OpenVario/e-Vario/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dirk/Libelle/OpenVario/e-Vario/Instructions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FBA9F5-E750-3F49-8A08-2DE269E6D56B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9E11AE-5B96-6347-935F-DF51BA844D54}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{A71850B3-3A10-CA42-999C-A02A84AA5A96}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="162">
   <si>
     <t>Value</t>
   </si>
@@ -163,9 +163,6 @@
   </si>
   <si>
     <t>NCP 1117 ST33T3G </t>
-  </si>
-  <si>
-    <t>JST XH2P BU</t>
   </si>
   <si>
     <t>﻿STF-WOELBKLAPPEN</t>
@@ -510,9 +507,6 @@
   </si>
   <si>
     <t>JST - socket housing, 1x3-pin - XH</t>
-  </si>
-  <si>
-    <t>JST — socket housing, 1x2-pin - XH</t>
   </si>
   <si>
     <t>Toggle switch 6A-125VAC, 1x On-Off-ON</t>
@@ -1035,7 +1029,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD46"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1392,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1411,7 +1405,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1425,7 +1419,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1442,10 +1436,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1454,7 +1448,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1468,10 +1462,10 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" t="s">
         <v>94</v>
-      </c>
-      <c r="E9" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1493,7 +1487,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -1505,15 +1499,15 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -1522,16 +1516,16 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -1540,16 +1534,16 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1558,16 +1552,16 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -1576,16 +1570,16 @@
         <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1594,16 +1588,16 @@
         <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -1612,13 +1606,13 @@
         <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -1635,10 +1629,10 @@
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="3">
         <v>5</v>
@@ -1647,15 +1641,15 @@
         <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1">
       <c r="A20" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="3">
         <v>4</v>
@@ -1664,15 +1658,15 @@
         <v>10</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -1686,10 +1680,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
@@ -1698,15 +1692,15 @@
         <v>10</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -1715,15 +1709,15 @@
         <v>10</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -1732,15 +1726,15 @@
         <v>10</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
@@ -1749,12 +1743,12 @@
         <v>10</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1">
       <c r="A26" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>23</v>
@@ -1768,10 +1762,10 @@
     </row>
     <row r="27" spans="1:6" s="4" customFormat="1">
       <c r="A27" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
@@ -1780,7 +1774,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="3"/>
     </row>
@@ -1789,7 +1783,7 @@
         <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1803,7 +1797,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
         <v>39</v>
@@ -1815,12 +1809,12 @@
         <v>10</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B30" t="s">
         <v>39</v>
@@ -1829,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E30" s="3"/>
     </row>
@@ -1859,10 +1853,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1876,10 +1870,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -1888,16 +1882,16 @@
         <v>10</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1911,7 +1905,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s">
         <v>29</v>
@@ -1924,10 +1918,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C39" s="9">
         <v>1</v>
@@ -1938,41 +1932,41 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
         <v>47</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
         <v>92</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -1989,7 +1983,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B43" t="s">
         <v>30</v>
@@ -2006,7 +2000,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B44" t="s">
         <v>30</v>
@@ -2018,15 +2012,15 @@
         <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>143</v>
+      <c r="A45" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2035,15 +2029,15 @@
         <v>10</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2052,15 +2046,15 @@
         <v>10</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -2074,7 +2068,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
@@ -2083,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E48" s="3"/>
     </row>
@@ -2103,7 +2097,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B52" t="s">
         <v>33</v>
@@ -2115,12 +2109,12 @@
         <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
@@ -2137,7 +2131,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>19</v>
@@ -2154,7 +2148,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B55" t="s">
         <v>19</v>
@@ -2171,7 +2165,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B56" t="s">
         <v>19</v>
@@ -2188,7 +2182,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2202,7 +2196,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B58" t="s">
         <v>36</v>
@@ -2211,12 +2205,12 @@
         <v>1</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -2225,7 +2219,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -2234,12 +2228,12 @@
         <v>37</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -2328,16 +2322,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2348,24 +2342,24 @@
         <v>17</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2373,97 +2367,97 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2471,13 +2465,13 @@
         <v>44</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2525,16 +2519,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2542,27 +2536,27 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2645,16 +2639,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2662,27 +2656,27 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/Bill_of_Material.xlsx
+++ b/Bill_of_Material.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dirk/Libelle/OpenVario/e-Vario/Instructions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dirk/Documents/GitHub/FreeVarioGauge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9E11AE-5B96-6347-935F-DF51BA844D54}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF24A8A-117B-4448-BC0D-9F35705ED747}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{A71850B3-3A10-CA42-999C-A02A84AA5A96}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="163">
   <si>
     <t>Value</t>
   </si>
@@ -567,6 +567,9 @@
   </si>
   <si>
     <t>JST - Stiftleiste, 90°, 1x3-polig - XH</t>
+  </si>
+  <si>
+    <t>R1, R2, R3, R4, R5</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1032,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1856,10 +1859,10 @@
         <v>117</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>

--- a/Bill_of_Material.xlsx
+++ b/Bill_of_Material.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dirk/Documents/GitHub/FreeVarioGauge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dirk/Libelle/OpenVario/e-Vario/Instructions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF24A8A-117B-4448-BC0D-9F35705ED747}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F0D5C5-AAA3-0148-8E44-15ADD7E67E41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{A71850B3-3A10-CA42-999C-A02A84AA5A96}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="166">
   <si>
     <t>Value</t>
   </si>
@@ -570,6 +570,15 @@
   </si>
   <si>
     <t>R1, R2, R3, R4, R5</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>TS 4148-1206</t>
+  </si>
+  <si>
+    <t>TS 4148-1206 Switching diode, 75 V, 150 mA, G1206</t>
   </si>
 </sst>
 </file>
@@ -1029,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE93BCC-B60F-D148-9D08-040AD6C1FD16}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1873,137 +1882,137 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="3">
+        <v>165</v>
+      </c>
+      <c r="B36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" s="3"/>
+        <v>164</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>90</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
         <v>132</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>29</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="9" t="s">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B40" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="9">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
+      <c r="C40" s="9">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
         <v>134</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>46</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1">
-      <c r="A41" t="s">
+    <row r="42" spans="1:6" ht="15" customHeight="1">
+      <c r="A42" t="s">
         <v>135</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>91</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>115</v>
-      </c>
-      <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" t="s">
         <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B44" t="s">
         <v>30</v>
@@ -2015,29 +2024,29 @@
         <v>10</v>
       </c>
       <c r="E44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="3" t="s">
+    <row r="46" spans="1:6">
+      <c r="A46" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="B45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>161</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
@@ -2049,78 +2058,78 @@
         <v>10</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="3" t="s">
-        <v>137</v>
+      <c r="A47" t="s">
+        <v>161</v>
       </c>
       <c r="B47" t="s">
         <v>45</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
         <v>10</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>159</v>
-      </c>
-      <c r="E48" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="3"/>
-    </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B52" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" t="s">
-        <v>156</v>
-      </c>
+      <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2129,114 +2138,117 @@
         <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>42</v>
+        <v>138</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B55" t="s">
+        <v>141</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C55" s="3">
+        <v>1</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B56" t="s">
         <v>19</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D57" t="s">
         <v>10</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B58" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
       <c r="E58" s="3" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="B59" t="s">
+        <v>36</v>
       </c>
       <c r="C59">
-        <v>2</v>
-      </c>
-      <c r="E59" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
-      <c r="D60" t="s">
-        <v>37</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>146</v>
-      </c>
+      <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -2245,24 +2257,34 @@
         <v>37</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="4"/>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="4"/>
-      <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="4"/>
@@ -2282,10 +2304,11 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="4"/>
-      <c r="D70" s="2"/>
+      <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="4"/>
+      <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="4"/>
@@ -2295,13 +2318,16 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="4"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{7F86150E-47FD-DA4A-9270-93DC9349E90E}"/>
     <hyperlink ref="D34" r:id="rId2" xr:uid="{291D8364-1659-9C40-8C0D-A90D0A1EBE5D}"/>
-    <hyperlink ref="E60" r:id="rId3" display="https://www.okw.com/de/Kombikn%C3%B6pfe/A2510030.htm?var=af9c94b0-c2e5-11e2-8e2c-0050568225d7" xr:uid="{793912D7-3AE5-B64B-B387-83FB71750F27}"/>
-    <hyperlink ref="E61" r:id="rId4" display="https://www.okw.com/de/Kombikn%C3%B6pfe-Zubeh%C3%B6r/A4110000.htm" xr:uid="{6CBEB647-38E6-FE49-9E02-7C7E2E54AE89}"/>
+    <hyperlink ref="E61" r:id="rId3" display="https://www.okw.com/de/Kombikn%C3%B6pfe/A2510030.htm?var=af9c94b0-c2e5-11e2-8e2c-0050568225d7" xr:uid="{793912D7-3AE5-B64B-B387-83FB71750F27}"/>
+    <hyperlink ref="E62" r:id="rId4" display="https://www.okw.com/de/Kombikn%C3%B6pfe-Zubeh%C3%B6r/A4110000.htm" xr:uid="{6CBEB647-38E6-FE49-9E02-7C7E2E54AE89}"/>
     <hyperlink ref="D30" r:id="rId5" xr:uid="{CD6A2158-00CE-3142-9BE4-E087F48664CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Bill_of_Material.xlsx
+++ b/Bill_of_Material.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dirk/Libelle/OpenVario/e-Vario/Instructions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dirk/Documents/GitHub/FreeVarioGauge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F0D5C5-AAA3-0148-8E44-15ADD7E67E41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682A679E-0FB7-A04D-BA0F-F890D8568DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{A71850B3-3A10-CA42-999C-A02A84AA5A96}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="164">
   <si>
     <t>Value</t>
   </si>
@@ -147,9 +147,6 @@
     <t>A4110000</t>
   </si>
   <si>
-    <t>Q1, Q2</t>
-  </si>
-  <si>
     <t>JST XH CKB</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
     <t>JST XH3P BU</t>
   </si>
   <si>
-    <t>NCP 1117 ST33T3G</t>
-  </si>
-  <si>
     <t>NCP 1117 ST33T3G </t>
   </si>
   <si>
@@ -181,12 +175,6 @@
   </si>
   <si>
     <t>Q1</t>
-  </si>
-  <si>
-    <t>ICK SMD A5</t>
-  </si>
-  <si>
-    <t>https://www.ebay.de/itm/EC360-ADHESIVE-WHITE-Wärmeleitfolie-kleber-50x50mm-Doppelseitig-3W-mK-WLPad/113931974912?ssPageName=STRK%3AMEBIDX%3AIT&amp;_trksid=p2057872.m2749.l2649</t>
   </si>
   <si>
     <t>C1, C2, C3, C5, C8</t>
@@ -473,9 +461,6 @@
     <t>transistor, NPN</t>
   </si>
   <si>
-    <t>Heat sink SMD 6,3 x4,8x 5,0mm</t>
-  </si>
-  <si>
     <t>Pin headers 2.54 mm, 2X05, angled</t>
   </si>
   <si>
@@ -527,9 +512,6 @@
     <t>COVER 10, WITHOUT LINE</t>
   </si>
   <si>
-    <t>Self-adhesive thermal foil</t>
-  </si>
-  <si>
     <t>Pinheader female, 4-pin</t>
   </si>
   <si>
@@ -579,6 +561,18 @@
   </si>
   <si>
     <t>TS 4148-1206 Switching diode, 75 V, 150 mA, G1206</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>Current Converter</t>
+  </si>
+  <si>
+    <t>Ebay</t>
+  </si>
+  <si>
+    <t>https://www.ebay.de/itm/184069513638</t>
   </si>
 </sst>
 </file>
@@ -1038,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE93BCC-B60F-D148-9D08-040AD6C1FD16}">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1398,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1417,7 +1411,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1431,7 +1425,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1448,10 +1442,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1460,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1474,10 +1468,10 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1499,7 +1493,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -1511,15 +1505,15 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -1528,16 +1522,16 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -1546,16 +1540,16 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1564,16 +1558,16 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -1582,16 +1576,16 @@
         <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1600,16 +1594,16 @@
         <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -1618,13 +1612,13 @@
         <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -1641,10 +1635,10 @@
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C19" s="3">
         <v>5</v>
@@ -1653,15 +1647,15 @@
         <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1">
       <c r="A20" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C20" s="3">
         <v>4</v>
@@ -1670,18 +1664,18 @@
         <v>10</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -1692,10 +1686,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
@@ -1704,15 +1698,15 @@
         <v>10</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -1721,15 +1715,15 @@
         <v>10</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -1738,15 +1732,15 @@
         <v>10</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
@@ -1755,12 +1749,12 @@
         <v>10</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1">
       <c r="A26" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>23</v>
@@ -1774,153 +1768,146 @@
     </row>
     <row r="27" spans="1:6" s="4" customFormat="1">
       <c r="A27" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B27" s="3"/>
       <c r="C27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="3"/>
+      <c r="A30" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="3" t="s">
-        <v>24</v>
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="1" t="s">
-        <v>25</v>
+      <c r="A33" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A34" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
-        <v>162</v>
+        <v>86</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="3" t="s">
-        <v>165</v>
+      <c r="A36" t="s">
+        <v>127</v>
       </c>
       <c r="B36" t="s">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>164</v>
-      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F37" s="3"/>
+      <c r="A37" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="9">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="3" t="s">
-        <v>131</v>
+      <c r="A38" t="s">
+        <v>129</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1929,42 +1916,49 @@
         <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="3"/>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="9">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="9"/>
+      <c r="A40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1973,15 +1967,15 @@
         <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1990,32 +1984,32 @@
         <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>115</v>
+      <c r="A43" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
         <v>10</v>
       </c>
-      <c r="E43" t="s">
-        <v>11</v>
+      <c r="E43" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2023,113 +2017,113 @@
       <c r="D44" t="s">
         <v>10</v>
       </c>
-      <c r="E44" t="s">
-        <v>31</v>
+      <c r="E44" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>151</v>
+      <c r="A45" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
       </c>
-      <c r="E45" t="s">
-        <v>152</v>
+      <c r="E45" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>161</v>
-      </c>
-      <c r="B47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>160</v>
+      <c r="A47" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B48" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="A48" s="3"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s">
-        <v>159</v>
-      </c>
-      <c r="E49" s="3"/>
+      <c r="A49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3" t="s">
-        <v>24</v>
+        <v>151</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="3"/>
+      <c r="A51" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" s="2"/>
+      <c r="A52" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2137,154 +2131,115 @@
       <c r="D53" t="s">
         <v>10</v>
       </c>
-      <c r="E53" t="s">
-        <v>156</v>
+      <c r="E53" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
         <v>10</v>
       </c>
-      <c r="E54" t="s">
-        <v>34</v>
+      <c r="E54" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="3">
-        <v>1</v>
-      </c>
-      <c r="D55" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
         <v>10</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56" t="s">
-        <v>10</v>
-      </c>
       <c r="E56" s="3" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B57" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="C57">
-        <v>3</v>
-      </c>
-      <c r="D57" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B59" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>37</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>153</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="C60">
-        <v>2</v>
-      </c>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C61">
-        <v>2</v>
-      </c>
-      <c r="D61" t="s">
-        <v>37</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>146</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D60" s="2"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s">
-        <v>37</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A62" s="4"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63" s="2"/>
+      <c r="A63" s="4"/>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="4"/>
+      <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="4"/>
+      <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="4"/>
@@ -2296,39 +2251,26 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="4"/>
-      <c r="E68" s="4"/>
+      <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="4"/>
-      <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="4"/>
-      <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="4"/>
-      <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="4"/>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="4"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="4"/>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{7F86150E-47FD-DA4A-9270-93DC9349E90E}"/>
-    <hyperlink ref="D34" r:id="rId2" xr:uid="{291D8364-1659-9C40-8C0D-A90D0A1EBE5D}"/>
-    <hyperlink ref="E61" r:id="rId3" display="https://www.okw.com/de/Kombikn%C3%B6pfe/A2510030.htm?var=af9c94b0-c2e5-11e2-8e2c-0050568225d7" xr:uid="{793912D7-3AE5-B64B-B387-83FB71750F27}"/>
-    <hyperlink ref="E62" r:id="rId4" display="https://www.okw.com/de/Kombikn%C3%B6pfe-Zubeh%C3%B6r/A4110000.htm" xr:uid="{6CBEB647-38E6-FE49-9E02-7C7E2E54AE89}"/>
-    <hyperlink ref="D30" r:id="rId5" xr:uid="{CD6A2158-00CE-3142-9BE4-E087F48664CC}"/>
+    <hyperlink ref="D31" r:id="rId2" xr:uid="{291D8364-1659-9C40-8C0D-A90D0A1EBE5D}"/>
+    <hyperlink ref="E58" r:id="rId3" display="https://www.okw.com/de/Kombikn%C3%B6pfe/A2510030.htm?var=af9c94b0-c2e5-11e2-8e2c-0050568225d7" xr:uid="{793912D7-3AE5-B64B-B387-83FB71750F27}"/>
+    <hyperlink ref="E59" r:id="rId4" display="https://www.okw.com/de/Kombikn%C3%B6pfe-Zubeh%C3%B6r/A4110000.htm" xr:uid="{6CBEB647-38E6-FE49-9E02-7C7E2E54AE89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2351,16 +2293,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2371,24 +2313,24 @@
         <v>17</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2396,111 +2338,111 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2548,16 +2490,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2565,27 +2507,27 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2668,16 +2610,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2685,27 +2627,27 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/Bill_of_Material.xlsx
+++ b/Bill_of_Material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dirk/Documents/GitHub/FreeVarioGauge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682A679E-0FB7-A04D-BA0F-F890D8568DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C2508C-B993-0E44-B0EE-45659224C903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{A71850B3-3A10-CA42-999C-A02A84AA5A96}"/>
   </bookViews>
@@ -1034,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE93BCC-B60F-D148-9D08-040AD6C1FD16}">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Bill_of_Material.xlsx
+++ b/Bill_of_Material.xlsx
@@ -8,15 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dirk/Documents/GitHub/FreeVarioGauge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C2508C-B993-0E44-B0EE-45659224C903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443D1D04-7EFD-DA41-B8A0-F71BC5B917C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{A71850B3-3A10-CA42-999C-A02A84AA5A96}"/>
   </bookViews>
   <sheets>
     <sheet name="Vario" sheetId="1" r:id="rId1"/>
-    <sheet name="BOM-PCB1" sheetId="2" r:id="rId2"/>
-    <sheet name="BOM-PCB2" sheetId="3" r:id="rId3"/>
-    <sheet name="BOM-PCB3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="131">
   <si>
     <t>Value</t>
   </si>
@@ -108,9 +105,6 @@
     <t>Vario Board 2</t>
   </si>
   <si>
-    <t>SMD-Widerstand, 0805, 10 kOhm</t>
-  </si>
-  <si>
     <t>SMD-0805 10,0K</t>
   </si>
   <si>
@@ -156,9 +150,6 @@
     <t>JST XH3P BU</t>
   </si>
   <si>
-    <t>NCP 1117 ST33T3G </t>
-  </si>
-  <si>
     <t>﻿STF-WOELBKLAPPEN</t>
   </si>
   <si>
@@ -168,15 +159,9 @@
     <t>SS ESP101</t>
   </si>
   <si>
-    <t>R1, R2, R3, R4</t>
-  </si>
-  <si>
     <t>X7R-G0805 100N</t>
   </si>
   <si>
-    <t>Q1</t>
-  </si>
-  <si>
     <t>C1, C2, C3, C5, C8</t>
   </si>
   <si>
@@ -186,135 +171,13 @@
     <t>X7R-G0805 1,0/50</t>
   </si>
   <si>
-    <t>C9, C11, C14</t>
-  </si>
-  <si>
-    <t>C6, C7, C10, C12, C13</t>
-  </si>
-  <si>
     <t>R1, R2</t>
   </si>
   <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>NCP 1117 ST50T3G</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Designator</t>
-  </si>
-  <si>
-    <t>Footprint</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>LCSC Part #</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>optional</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <t>SO-16</t>
-  </si>
-  <si>
-    <t>C143432</t>
-  </si>
-  <si>
     <t>EA WF050-40ST</t>
   </si>
   <si>
-    <t>MOLEX 541044031</t>
-  </si>
-  <si>
-    <t>C164172</t>
-  </si>
-  <si>
-    <t>ZIF SMD</t>
-  </si>
-  <si>
-    <t>10nF</t>
-  </si>
-  <si>
-    <t>C83170</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>0805</t>
-  </si>
-  <si>
-    <t>C49678</t>
-  </si>
-  <si>
-    <t>1µF</t>
-  </si>
-  <si>
-    <t>10µF</t>
-  </si>
-  <si>
-    <t>C77083</t>
-  </si>
-  <si>
-    <t>C77075</t>
-  </si>
-  <si>
     <t>PAM8302A</t>
-  </si>
-  <si>
-    <t>C113367</t>
-  </si>
-  <si>
-    <t>MSOP8</t>
-  </si>
-  <si>
-    <t>PAM8302AASCR</t>
-  </si>
-  <si>
-    <t>C26537</t>
-  </si>
-  <si>
-    <t>SOT-223</t>
-  </si>
-  <si>
-    <t>C17314</t>
-  </si>
-  <si>
-    <t>C84376</t>
   </si>
   <si>
     <t>https://www.luna-electronic.de/de/tft-displays/newhaven-display-nhd-2-4-240320cf-csxn-f-2-4-sunlight-readable-tft.html</t>
@@ -579,7 +442,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,25 +478,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri Light (Überschriften)"/>
@@ -659,21 +503,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -681,42 +519,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1038,7 +854,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
@@ -1362,7 +1178,7 @@
     <col min="16133" max="16133" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1379,12 +1195,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1392,10 +1208,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1409,9 +1225,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1423,9 +1239,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1440,12 +1256,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1454,10 +1270,10 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -1468,14 +1284,14 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
@@ -1491,9 +1307,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -1505,15 +1321,15 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -1522,16 +1338,16 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -1540,16 +1356,16 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1558,16 +1374,16 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -1576,16 +1392,16 @@
         <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1594,16 +1410,16 @@
         <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -1612,13 +1428,13 @@
         <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -1633,12 +1449,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1">
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C19" s="3">
         <v>5</v>
@@ -1647,15 +1463,15 @@
         <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="3" customFormat="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="C20" s="3">
         <v>4</v>
@@ -1664,15 +1480,15 @@
         <v>10</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1684,12 +1500,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
@@ -1698,15 +1514,15 @@
         <v>10</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -1715,15 +1531,15 @@
         <v>10</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -1732,15 +1548,15 @@
         <v>10</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
@@ -1749,12 +1565,12 @@
         <v>10</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="4" customFormat="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>23</v>
@@ -1766,33 +1582,33 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" s="4" customFormat="1">
+    <row r="27" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3">
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1806,12 +1622,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -1820,67 +1636,67 @@
         <v>10</v>
       </c>
       <c r="E32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B33" t="s">
-        <v>157</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>127</v>
-      </c>
-      <c r="B36" t="s">
-        <v>29</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1888,26 +1704,26 @@
       <c r="D36" s="2"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="9">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="6">
         <v>1</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="E37" s="7"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1916,15 +1732,15 @@
         <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1933,12 +1749,12 @@
         <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -1953,29 +1769,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
         <v>30</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1984,15 +1800,15 @@
         <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2001,16 +1817,16 @@
         <v>10</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>155</v>
-      </c>
-      <c r="B44" t="s">
-        <v>43</v>
-      </c>
       <c r="C44">
         <v>1</v>
       </c>
@@ -2018,15 +1834,15 @@
         <v>10</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -2035,12 +1851,12 @@
         <v>10</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
@@ -2049,31 +1865,31 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B50" t="s">
-        <v>33</v>
-      </c>
       <c r="C50">
         <v>1</v>
       </c>
@@ -2081,12 +1897,12 @@
         <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
@@ -2098,12 +1914,12 @@
         <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>19</v>
@@ -2115,12 +1931,12 @@
         <v>10</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
@@ -2132,12 +1948,12 @@
         <v>10</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
         <v>19</v>
@@ -2149,12 +1965,12 @@
         <v>10</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2163,61 +1979,61 @@
         <v>10</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B56" t="s">
-        <v>36</v>
-      </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
       <c r="D59" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>24</v>
       </c>
@@ -2226,43 +2042,43 @@
       </c>
       <c r="D60" s="2"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="E65" s="4"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
     </row>
   </sheetData>
@@ -2274,441 +2090,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE57722-5B75-1D40-B9DC-B066A479B666}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="3"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="C15" s="8"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://lcsc.com/product-detail/RS232-ICs_Maxim-Integrated_MAX3232ECWE_Maxim-Integrated-MAX3232ECWE_C143432.html" xr:uid="{FFB8C294-ADB0-F040-8E94-CA7FA2EA3011}"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://lcsc.com/product-detail/FFC-FPC-Connectors_MOLEX_541044031_MOLEX-541044031_C164172.html" xr:uid="{A7338377-6668-2044-8707-7702B89446DA}"/>
-    <hyperlink ref="D5" r:id="rId3" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_10nF-103-10-50V_C83170.html" xr:uid="{898EF980-0C37-1645-A0A7-204CDB314404}"/>
-    <hyperlink ref="D7" r:id="rId4" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_muRata_GRM21BR71H105KA12L_1uF-105-10-50V_C77083.html" xr:uid="{1D7CFD7E-0378-D34D-93C2-E2A1F7CCE8B6}"/>
-    <hyperlink ref="D9" r:id="rId5" display="https://lcsc.com/product-detail/Audio-Power-OpAmps_Diodes-Incorporated_PAM8302AASCR_Diodes-Incorporated-PAM8302AASCR_C113367.html" xr:uid="{E725EF93-6260-8C48-A42F-BB8CA19F9EFB}"/>
-    <hyperlink ref="A9" r:id="rId6" display="https://lcsc.com/product-detail/Audio-Power-OpAmps_Diodes-Incorporated_PAM8302AASCR_Diodes-Incorporated-PAM8302AASCR_C113367.html" xr:uid="{D6D8886E-D7E2-A846-BA93-6765604167F3}"/>
-    <hyperlink ref="D10" r:id="rId7" display="https://lcsc.com/product-detail/Low-Dropout-Regulators-LDO_ON-Semiconductor-ON-NCP1117ST50T3G_C17314.html" xr:uid="{1C2BF8A9-1D03-DD4D-87A2-7145C42F989B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B9D977-3A0D-9F42-A6D8-BF8241070D0D}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="3"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="3"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="3"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="3"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="3"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="3"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="3"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5151FA7D-8764-CA4A-9E1E-220B2BFCB1B2}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="3"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="3"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="3"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="3"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="3"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="3"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="3"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>